--- a/results (copy).xlsx
+++ b/results (copy).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Table1 &amp; Fig1" sheetId="1" state="visible" r:id="rId2"/>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">Humans</t>
   </si>
   <si>
-    <t xml:space="preserve">Birds</t>
+    <t xml:space="preserve">Wild birds</t>
   </si>
   <si>
     <t xml:space="preserve">Wild mammals</t>
@@ -1145,15 +1145,15 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1780,13 +1780,13 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2286,12 +2286,12 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2853,12 +2853,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3159,12 +3159,12 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3579,12 +3579,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3915,12 +3915,12 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4580,14 +4580,14 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/results (copy).xlsx
+++ b/results (copy).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table1 &amp; Fig1" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="G2" authorId="0">
@@ -54,7 +54,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A24" authorId="0">
@@ -94,7 +94,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0">
@@ -119,7 +119,7 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="C16" authorId="0">
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="128">
   <si>
     <t xml:space="preserve">Biomass [Gt C]</t>
   </si>
@@ -328,12 +328,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wild land mammals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annelids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nematodes</t>
   </si>
   <si>
     <t xml:space="preserve">Terrestrial protists</t>
@@ -958,7 +952,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1145,15 +1139,15 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.8775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1763,7 +1757,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1777,16 +1771,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.8775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1822,9 +1816,7 @@
       <c r="F2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A3" s="24"/>
       <c r="B3" s="27" t="s">
         <v>34</v>
       </c>
@@ -1836,9 +1828,7 @@
       <c r="F3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="24"/>
       <c r="B4" s="27" t="s">
         <v>35</v>
       </c>
@@ -1850,9 +1840,7 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="24"/>
       <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
@@ -1864,9 +1852,7 @@
       <c r="F5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="24"/>
       <c r="B6" s="27" t="s">
         <v>17</v>
       </c>
@@ -1878,9 +1864,7 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="24"/>
       <c r="B7" s="27" t="s">
         <v>24</v>
       </c>
@@ -1892,9 +1876,7 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="24"/>
       <c r="B8" s="27" t="s">
         <v>23</v>
       </c>
@@ -1906,9 +1888,7 @@
       <c r="F8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="24"/>
       <c r="B9" s="27" t="s">
         <v>36</v>
       </c>
@@ -1920,9 +1900,7 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="24"/>
       <c r="B10" s="27" t="s">
         <v>25</v>
       </c>
@@ -1934,11 +1912,9 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="24"/>
       <c r="B11" s="27" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
@@ -1948,11 +1924,9 @@
       <c r="F11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="24"/>
       <c r="B12" s="27" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8" t="n">
         <v>0.01</v>
@@ -1961,11 +1935,9 @@
       <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="24"/>
       <c r="B13" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="n">
         <v>1.6</v>
@@ -1974,11 +1946,9 @@
       <c r="F13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="24"/>
       <c r="B14" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="16" t="n">
         <f aca="false">SUM(C2:C13)</f>
@@ -1989,139 +1959,127 @@
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="E15" s="0"/>
+    <row r="15" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="F15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="8" t="n">
+      <c r="B16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>1.4</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="8" t="n">
+      <c r="E16" s="28"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="33"/>
+      <c r="B17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0.3</v>
       </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="33"/>
+      <c r="B18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!C15</f>
+        <v>0.9</v>
+      </c>
       <c r="E18" s="28"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="33"/>
       <c r="B19" s="27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C15</f>
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17</f>
         <v>0.2</v>
       </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="33"/>
+      <c r="B20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!C16</f>
+        <v>0.1</v>
+      </c>
       <c r="E20" s="28"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="A21" s="33"/>
       <c r="B21" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="8" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C16</f>
-        <v>0.1</v>
+        <f aca="false">'Table1 &amp; Fig1'!C24</f>
+        <v>1.8</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="33"/>
       <c r="B22" s="27" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C22" s="8" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C24</f>
-        <v>1.8</v>
+        <f aca="false">'Table1 &amp; Fig1'!C19</f>
+        <v>0.7</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="A23" s="33"/>
       <c r="B23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C19</f>
-        <v>0.7</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C23" s="8"/>
       <c r="E23" s="28"/>
       <c r="F23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="33"/>
       <c r="B24" s="27" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="28"/>
       <c r="F24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="A25" s="33"/>
       <c r="B25" s="27" t="s">
         <v>12</v>
       </c>
@@ -2133,14 +2091,12 @@
       <c r="F25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="33"/>
       <c r="B26" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11" t="n">
-        <f aca="false">SUM(C17:C25)</f>
+        <f aca="false">SUM(C16:C25)</f>
         <v>6</v>
       </c>
       <c r="E26" s="36" t="n">
@@ -2148,129 +2104,117 @@
       </c>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="E27" s="14"/>
+    <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>1</v>
+      </c>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="8" t="n">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C5</f>
         <v>7</v>
       </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24"/>
+      <c r="B29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!C2</f>
+        <v>58</v>
+      </c>
       <c r="E29" s="28"/>
       <c r="F29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="A30" s="24"/>
       <c r="B30" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="8" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C2</f>
-        <v>58</v>
+        <f aca="false">'Table1 &amp; Fig1'!C9</f>
+        <v>3</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="A31" s="24"/>
       <c r="B31" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="8" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C9</f>
-        <v>3</v>
+        <f aca="false">'Table1 &amp; Fig1'!C6</f>
+        <v>4</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="A32" s="24"/>
       <c r="B32" s="27" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C32" s="8" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C6</f>
-        <v>4</v>
+        <f aca="false">'Table1 &amp; Fig1'!C26</f>
+        <v>0.6</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="A33" s="24"/>
       <c r="B33" s="27" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C33" s="8" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C26</f>
+        <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0.6</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="8" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C12</f>
-        <v>0.6</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="11" t="n">
-        <f aca="false">SUM(C29:C34)</f>
+      <c r="A34" s="24"/>
+      <c r="B34" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <f aca="false">SUM(C28:C33)</f>
         <v>73.2</v>
       </c>
-      <c r="E35" s="36" t="n">
+      <c r="E34" s="36" t="n">
         <v>70</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="A28:A34"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2283,15 +2227,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2308,12 +2252,12 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
@@ -2325,7 +2269,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>2</v>
@@ -2334,7 +2278,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>2</v>
@@ -2351,10 +2295,10 @@
         <v>450</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
@@ -2372,7 +2316,7 @@
       <c r="B5" s="0"/>
       <c r="C5" s="28"/>
       <c r="D5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
@@ -2390,7 +2334,7 @@
       <c r="B6" s="0"/>
       <c r="C6" s="28"/>
       <c r="D6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
@@ -2408,7 +2352,7 @@
       <c r="B7" s="0"/>
       <c r="C7" s="28"/>
       <c r="D7" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C25</f>
@@ -2474,10 +2418,10 @@
       <c r="B11" s="0"/>
       <c r="C11" s="28"/>
       <c r="D11" s="14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E11" s="29" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C23</f>
+        <f aca="false">Fig2A!C9</f>
         <v>0</v>
       </c>
       <c r="F11" s="34" t="n">
@@ -2525,6 +2469,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="10" t="n">
+        <f aca="false">Fig2A!C12</f>
         <v>0.01</v>
       </c>
       <c r="F14" s="36"/>
@@ -2544,24 +2489,24 @@
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="16" t="n">
         <f aca="false">B4</f>
@@ -2571,7 +2516,7 @@
         <v>450</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="16" t="n">
         <f aca="false">SUM(E4:E14)</f>
@@ -2607,12 +2552,12 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -2624,7 +2569,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>2</v>
@@ -2633,7 +2578,7 @@
         <v>33</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="39" t="s">
         <v>2</v>
@@ -2643,14 +2588,14 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>0.1</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
@@ -2662,14 +2607,14 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>0.14</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E23" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
@@ -2681,14 +2626,14 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="8" t="n">
         <v>0.42</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24-SUM(B24:B26)</f>
@@ -2700,7 +2645,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="8" t="n">
         <v>0.3</v>
@@ -2719,7 +2664,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="8" t="n">
         <v>0.28</v>
@@ -2756,7 +2701,7 @@
       <c r="B28" s="0"/>
       <c r="C28" s="28"/>
       <c r="D28" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
@@ -2767,61 +2712,91 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="16" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <f aca="false">Fig2A!C23</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="22"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <f aca="false">Fig2A!C24</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E31" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0.6</v>
       </c>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38"/>
-      <c r="B31" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="16" t="n">
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="38"/>
+      <c r="B33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="16" t="n">
         <f aca="false">SUM(B22:B26)</f>
         <v>1.24</v>
       </c>
-      <c r="C32" s="16" t="n">
+      <c r="C34" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="16" t="n">
-        <f aca="false">SUM(E22:E29)</f>
+      <c r="D34" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="16" t="n">
+        <f aca="false">SUM(E22:E31)</f>
         <v>5</v>
       </c>
-      <c r="F32" s="36" t="n">
+      <c r="F34" s="36" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2836,7 +2811,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2852,13 +2827,13 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2873,10 +2848,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2896,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2942,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
@@ -2987,7 +2962,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="29" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C23</f>
+        <f aca="false">Fig2A!C9</f>
         <v>0</v>
       </c>
       <c r="D8" s="14"/>
@@ -3003,7 +2978,10 @@
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
         <v>0.002</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="n">
+        <f aca="false">Fig2A!C23</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="34"/>
     </row>
@@ -3026,10 +3004,12 @@
         <v>21</v>
       </c>
       <c r="C11" s="8" t="n">
+        <f aca="false">Fig2A!C12</f>
         <v>0.01</v>
       </c>
       <c r="D11" s="14" t="n">
-        <v>0.01</v>
+        <f aca="false">Fig2A!C24</f>
+        <v>0</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="34"/>
@@ -3063,7 +3043,7 @@
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="27"/>
       <c r="B14" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="8" t="n">
@@ -3076,7 +3056,7 @@
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="27"/>
       <c r="B15" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="14" t="n">
         <f aca="false">SUM(C5:C14)</f>
@@ -3084,7 +3064,7 @@
       </c>
       <c r="D15" s="14" t="n">
         <f aca="false">SUM(D5:D14)</f>
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E15" s="14" t="n">
         <f aca="false">SUM(E5:E14)</f>
@@ -3142,7 +3122,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3158,13 +3138,13 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3225,7 +3205,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
@@ -3563,7 +3543,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3578,35 +3558,35 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="49" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28*1000000000000000</f>
@@ -3697,7 +3677,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="49" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C14:C15)*1000000000000000</f>
@@ -3882,7 +3862,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="53" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C19:C23)*1000000000000000</f>
@@ -3899,7 +3879,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3914,32 +3894,32 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.8775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="55"/>
       <c r="B1" s="55"/>
       <c r="C1" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4564,7 +4544,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4580,32 +4560,32 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.8775510204082"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="64"/>
       <c r="B1" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="66" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F29</f>
@@ -4619,7 +4599,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28</f>
@@ -4633,7 +4613,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="65" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="67" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28/'Table1 &amp; Fig1'!F29</f>
@@ -4647,7 +4627,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F2</f>
@@ -4661,7 +4641,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="68" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G2/'Table1 &amp; Fig1'!F29</f>
@@ -4675,7 +4655,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C28-B10</f>
@@ -4689,7 +4669,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="67" t="n">
         <f aca="false">B7/SUM(B9+B7)</f>
@@ -4703,7 +4683,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">B10+'Table1 &amp; Fig1'!C4+'Table1 &amp; Fig1'!C5+'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C8+'Table1 &amp; Fig1'!C9+'Table1 &amp; Fig1'!C10+'Table1 &amp; Fig1'!C12+'Table1 &amp; Fig1'!C25+'Table1 &amp; Fig1'!C26+'Table1 &amp; Fig1'!C13+'Table1 &amp; Fig1'!C2</f>
@@ -4717,7 +4697,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>134</v>
@@ -4730,7 +4710,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">B9-B10</f>
@@ -4743,7 +4723,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="68" t="n">
         <f aca="false">(B3-B14)/B3</f>
@@ -4756,7 +4736,7 @@
     </row>
     <row r="13" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="67" t="n">
         <f aca="false">Fig2C!E16/SUM(Fig2C!C16:E16)</f>
@@ -4769,7 +4749,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="9" t="n">
         <f aca="false">FigS1!D28</f>
@@ -4782,7 +4762,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">FigS1!D2</f>
@@ -4795,7 +4775,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="9" t="n">
         <f aca="false">FigS1!D8</f>
@@ -4808,7 +4788,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="70" t="n">
         <f aca="false">379*0.15/1000</f>
@@ -4821,7 +4801,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
@@ -4834,7 +4814,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
@@ -4847,7 +4827,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="70" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
@@ -4860,7 +4840,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="70" t="n">
         <v>0.005</v>
@@ -4872,7 +4852,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="70" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
@@ -4885,7 +4865,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" s="67" t="n">
         <f aca="false">B21/B22</f>
@@ -4898,7 +4878,7 @@
     </row>
     <row r="24" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="65" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" s="68" t="n">
         <f aca="false">SUM(Fig2C!C6,Fig2C!C7)/SUM(Fig2C!C5:C11)</f>
@@ -4911,7 +4891,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="67" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F13</f>
@@ -4925,7 +4905,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C14:C15)</f>
@@ -4938,7 +4918,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
@@ -4952,7 +4932,7 @@
     </row>
     <row r="28" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" s="9" t="n">
         <v>0.022</v>
@@ -4961,12 +4941,12 @@
         <v>0.02</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" s="9" t="n">
         <v>0.0029</v>
@@ -4978,7 +4958,7 @@
     </row>
     <row r="30" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="67" t="n">
         <f aca="false">B28/B29</f>
@@ -4991,7 +4971,7 @@
     </row>
     <row r="31" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" s="70" t="n">
         <f aca="false">126185600000000*0.15/1000000000000000</f>
@@ -5001,12 +4981,12 @@
         <v>0.02</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" s="71" t="n">
         <f aca="false">29690720000000*0.15/1000000000000000</f>
@@ -5019,7 +4999,7 @@
     </row>
     <row r="33" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="67" t="n">
         <f aca="false">B31/B32</f>
@@ -5032,7 +5012,7 @@
     </row>
     <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" s="67" t="n">
         <f aca="false">(B28+B31)/(B29+B32)</f>
@@ -5045,7 +5025,7 @@
     </row>
     <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" s="67" t="n">
         <f aca="false">SUM(B18,B19,B29,B32)/SUM(B28,B31)</f>
@@ -5058,7 +5038,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="70" t="n">
         <f aca="false">B28+B31</f>
@@ -5071,7 +5051,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" s="70" t="n">
         <f aca="false">B32+B29+B18+B19</f>
@@ -5084,7 +5064,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="9" t="n">
         <v>0.2</v>
@@ -5096,7 +5076,7 @@
     </row>
     <row r="39" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" s="67" t="n">
         <f aca="false">(916-B3+B2)/B2</f>
@@ -5106,12 +5086,12 @@
         <v>2</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="66" t="n">
         <f aca="false">Fig2A!C14</f>
@@ -5124,7 +5104,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="n">
         <f aca="false">Fig2A!C26</f>
@@ -5137,10 +5117,10 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="n">
-        <f aca="false">Fig2B!B32</f>
+        <f aca="false">Fig2B!B34</f>
         <v>1.24</v>
       </c>
       <c r="C42" s="9" t="n">
@@ -5150,10 +5130,10 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="n">
-        <f aca="false">Fig2B!E32</f>
+        <f aca="false">Fig2B!E34</f>
         <v>5</v>
       </c>
       <c r="C43" s="9" t="n">
@@ -5163,10 +5143,10 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" s="68" t="n">
-        <f aca="false">SUM(Fig2B!E22,Fig2B!E23,Fig2B!E24,Fig2B!E29,Fig2B!B24,Fig2B!B25,Fig2B!B26)/SUM(Fig2B!B32,Fig2B!E32)</f>
+        <f aca="false">SUM(Fig2B!E22,Fig2B!E23,Fig2B!E24,Fig2B!E31,Fig2B!B24,Fig2B!B25,Fig2B!B26)/SUM(Fig2B!B34,Fig2B!E34)</f>
         <v>0.657051282051282</v>
       </c>
       <c r="C44" s="9" t="n">
@@ -5176,10 +5156,10 @@
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B45" s="73" t="n">
-        <f aca="false">Fig2A!C35/SUM(Fig2A!C35,Fig2A!C26,Fig2A!C14)</f>
+        <f aca="false">Fig2A!C34/SUM(Fig2A!C34,Fig2A!C26,Fig2A!C14)</f>
         <v>0.132786225061767</v>
       </c>
       <c r="C45" s="9" t="n">
@@ -5189,7 +5169,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" s="11" t="n">
         <v>0.07</v>
@@ -5202,7 +5182,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
